--- a/resources/templet/contract.xlsx
+++ b/resources/templet/contract.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\souvi\pm\pm\resources\templet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>立项名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,17 +96,21 @@
   </si>
   <si>
     <t>A柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +333,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,14 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
@@ -509,12 +528,12 @@
     <col min="8" max="9" width="14" style="2"/>
     <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="14" style="2"/>
+    <col min="12" max="13" width="15.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,10 +571,13 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -585,6 +607,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -606,12 +629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,12 +642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
